--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3601.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3601.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.472324088151824</v>
+        <v>1.707577466964722</v>
       </c>
       <c r="B1">
-        <v>3.094210333657696</v>
+        <v>4.086183547973633</v>
       </c>
       <c r="C1">
-        <v>4.223896938307219</v>
+        <v>3.182519435882568</v>
       </c>
       <c r="D1">
-        <v>1.470584904146001</v>
+        <v>1.442652583122253</v>
       </c>
       <c r="E1">
-        <v>0.819475872971864</v>
+        <v>1.022813320159912</v>
       </c>
     </row>
   </sheetData>
